--- a/WorkTime/加班时间统计.xlsx
+++ b/WorkTime/加班时间统计.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="加班时间统计" sheetId="27" r:id="rId1"/>
+    <sheet name="加班时间统计" sheetId="29" r:id="rId1"/>
     <sheet name="备份" sheetId="25" r:id="rId2"/>
-    <sheet name="隐藏" sheetId="28" state="hidden" r:id="rId3"/>
+    <sheet name="隐藏" sheetId="30" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t>工作日期 </t>
   </si>
@@ -152,6 +152,10 @@
     <t>假日加班(分钟)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>git clone -b worktime https://github.com/superzoon/superzoon.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -471,13 +475,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +602,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,10 +904,10 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="H1:AD1"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,8 +916,9 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
@@ -948,27 +965,29 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
+      <c r="T1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:41" ht="15" thickBot="1">
@@ -4082,10 +4101,13 @@
       <c r="AO49" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6C6" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="H3:AN48" name="编辑"/>
   </protectedRanges>
+  <mergeCells count="1">
+    <mergeCell ref="T1:AN1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4100,7 +4122,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD1" sqref="H1:AD1"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4158,27 +4180,29 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
+      <c r="T1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:41" ht="15" thickBot="1">
@@ -7292,10 +7316,13 @@
       <c r="AO49" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6C6" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="H3:AN48" name="编辑"/>
   </protectedRanges>
+  <mergeCells count="1">
+    <mergeCell ref="T1:AN1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7307,10 +7334,10 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7319,7 +7346,8 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" customWidth="1"/>
@@ -7367,27 +7395,29 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
+      <c r="T1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:41" ht="15" thickBot="1">
@@ -10501,10 +10531,13 @@
       <c r="AO49" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="C6C6" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="H3:AN48" name="编辑"/>
   </protectedRanges>
+  <mergeCells count="1">
+    <mergeCell ref="T1:AN1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/WorkTime/加班时间统计.xlsx
+++ b/WorkTime/加班时间统计.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="加班统计" sheetId="36" r:id="rId1"/>
-    <sheet name="隐藏" sheetId="38" state="hidden" r:id="rId2"/>
-    <sheet name="temp" sheetId="34" r:id="rId3"/>
+    <sheet name="当月" sheetId="58" r:id="rId1"/>
+    <sheet name="隐藏" sheetId="61" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>工作日期 </t>
   </si>
@@ -96,9 +95,6 @@
     <t>工伤假〔天〕 </t>
   </si>
   <si>
-    <t>工号 </t>
-  </si>
-  <si>
     <t>入离职缺勤天数 </t>
   </si>
   <si>
@@ -153,186 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t> 2018.12.03 </t>
-  </si>
-  <si>
-    <t> 20181205131 </t>
-  </si>
-  <si>
-    <t> 公休日 </t>
-  </si>
-  <si>
-    <t> 15.00 </t>
-  </si>
-  <si>
-    <t> 0016005131 </t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t> 1.00 </t>
-  </si>
-  <si>
-    <t> 工作日 </t>
-  </si>
-  <si>
-    <t> 节假日 </t>
-  </si>
-  <si>
-    <t> 17.50 </t>
-  </si>
-  <si>
-    <t> 2019.05.02 </t>
-  </si>
-  <si>
-    <t> 2019.05.03 </t>
-  </si>
-  <si>
-    <t> 2019.05.04 </t>
-  </si>
-  <si>
-    <t> 2019.05.05 </t>
-  </si>
-  <si>
-    <t> 2019.05.06 </t>
-  </si>
-  <si>
-    <t> 2019.05.10 </t>
-  </si>
-  <si>
-    <t> 2019.05.11 </t>
-  </si>
-  <si>
-    <t> 2019.05.12 </t>
-  </si>
-  <si>
-    <t> 2019.05.17 </t>
-  </si>
-  <si>
-    <t> 2019.05.18 </t>
-  </si>
-  <si>
-    <t> 2019.05.19 </t>
-  </si>
-  <si>
-    <t> 2019.05.20 </t>
-  </si>
-  <si>
-    <t> 2019.05.25 </t>
-  </si>
-  <si>
-    <t> 2019.05.26 </t>
-  </si>
-  <si>
-    <t> 2019.05.27 </t>
-  </si>
-  <si>
-    <t> 2019.05.28 </t>
-  </si>
-  <si>
-    <t> 2019.05.29 </t>
-  </si>
-  <si>
-    <t> 2019.05.30 </t>
-  </si>
-  <si>
-    <t> 2019.05.31 </t>
-  </si>
-  <si>
-    <t> 07:53,18:11 </t>
-  </si>
-  <si>
-    <t> 07:43,21:23 </t>
-  </si>
-  <si>
-    <t> 07:54,21:13 </t>
-  </si>
-  <si>
-    <t> 07:54,19:40 </t>
-  </si>
-  <si>
-    <t> 07:43,21:03 </t>
-  </si>
-  <si>
-    <t> 07:52,21:04 </t>
-  </si>
-  <si>
-    <t> 07:59,21:13 </t>
-  </si>
-  <si>
-    <t> 07:49,21:09 </t>
-  </si>
-  <si>
-    <t> 08:02,18:14 </t>
-  </si>
-  <si>
-    <t> 07:49,20:40 </t>
-  </si>
-  <si>
-    <t> 07:51,21:54 </t>
-  </si>
-  <si>
-    <t> 07:58,21:37 </t>
-  </si>
-  <si>
-    <t> 07:52,22:09 </t>
-  </si>
-  <si>
-    <t> 07:51,19:08 </t>
-  </si>
-  <si>
-    <t> 2019.05.24 </t>
-  </si>
-  <si>
-    <t> 12:50,18:40 </t>
-  </si>
-  <si>
-    <t>2019.05.01 </t>
-  </si>
-  <si>
-    <t> 07:52,20:58 </t>
-  </si>
-  <si>
-    <t> 07:49,21:17 </t>
-  </si>
-  <si>
-    <t> 08:00,20:48 </t>
-  </si>
-  <si>
-    <t> 2019.05.07 </t>
-  </si>
-  <si>
-    <t> 2019.05.08 </t>
-  </si>
-  <si>
-    <t> 2019.05.09 </t>
-  </si>
-  <si>
-    <t> 2019.05.13 </t>
-  </si>
-  <si>
-    <t> 2019.05.14 </t>
-  </si>
-  <si>
-    <t> 2019.05.15 </t>
-  </si>
-  <si>
-    <t> 2019.05.16 </t>
-  </si>
-  <si>
-    <t> 12:56,18:14 </t>
-  </si>
-  <si>
-    <t> 2019.05.21 </t>
-  </si>
-  <si>
-    <t> 2019.05.22 </t>
-  </si>
-  <si>
-    <t> 2019.05.23 </t>
-  </si>
-  <si>
     <t>加班时长受限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +170,10 @@
   </si>
   <si>
     <t>差值(分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -601,19 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF99BBE8"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF99BBE8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF99BBE8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -624,24 +431,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF99BBE8"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF99BBE8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,24 +507,9 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -741,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,10 +823,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL24" sqref="AL24"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1057,17 +841,16 @@
     <col min="11" max="11" width="11.625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="12.125" customWidth="1"/>
-    <col min="32" max="32" width="11.375" customWidth="1"/>
-    <col min="33" max="33" width="13.25" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="14.375" customWidth="1"/>
-    <col min="36" max="36" width="13.125" customWidth="1"/>
-    <col min="38" max="38" width="10" customWidth="1"/>
-    <col min="39" max="39" width="13.875" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="25" max="25" width="11.625" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="33" max="33" width="15.25" customWidth="1"/>
+    <col min="34" max="34" width="13.25" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="14.375" customWidth="1"/>
+    <col min="37" max="37" width="13.125" customWidth="1"/>
+    <col min="39" max="39" width="10" customWidth="1"/>
     <col min="40" max="40" width="12.25" customWidth="1"/>
     <col min="44" max="45" width="12.25" customWidth="1"/>
     <col min="46" max="46" width="14.25" customWidth="1"/>
@@ -1076,14 +859,14 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9">
         <f>ROUND(L1/60,2)</f>
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1092,14 +875,14 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="23"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="11">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
         <v>0</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="18"/>
-      <c r="O1" s="7"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -1133,148 +916,148 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="6"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1">
+    <row r="2" spans="1:47" ht="14.25">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AU2" s="6"/>
     </row>
-    <row r="3" spans="1:47" ht="15" thickBot="1">
+    <row r="3" spans="1:47" ht="14.25">
       <c r="A3" s="14">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
         <v>0</v>
@@ -1312,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
+        <f>IF(MID(Q3,2,4)="1.00",0,1)</f>
         <v>1</v>
       </c>
       <c r="K3" s="16">
@@ -1323,43 +1106,43 @@
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
       <c r="AU3" s="6"/>
     </row>
-    <row r="4" spans="1:47" ht="15" thickBot="1">
+    <row r="4" spans="1:47" ht="14.25">
       <c r="A4" s="14">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
         <v>0</v>
@@ -1397,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
+        <f t="shared" ref="J4:J48" si="9">IF(MID(Q4,2,4)="1.00",0,1)</f>
         <v>1</v>
       </c>
       <c r="K4" s="16">
@@ -1408,43 +1191,43 @@
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
       <c r="AU4" s="6"/>
     </row>
-    <row r="5" spans="1:47" ht="15" thickBot="1">
+    <row r="5" spans="1:47" ht="14.25">
       <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1493,43 +1276,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
       <c r="AU5" s="6"/>
     </row>
-    <row r="6" spans="1:47" ht="15" thickBot="1">
+    <row r="6" spans="1:47" ht="14.25">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1578,43 +1361,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
       <c r="AU6" s="6"/>
     </row>
-    <row r="7" spans="1:47" ht="15" thickBot="1">
+    <row r="7" spans="1:47" ht="14.25">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1663,43 +1446,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
       <c r="AU7" s="6"/>
     </row>
-    <row r="8" spans="1:47" ht="15" thickBot="1">
+    <row r="8" spans="1:47" ht="14.25">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1748,43 +1531,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:47" ht="15" thickBot="1">
+    <row r="9" spans="1:47" ht="14.25">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1833,43 +1616,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
       <c r="AU9" s="6"/>
     </row>
-    <row r="10" spans="1:47" ht="15" thickBot="1">
+    <row r="10" spans="1:47" ht="14.25">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1918,43 +1701,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
       <c r="AU10" s="6"/>
     </row>
-    <row r="11" spans="1:47" ht="15" thickBot="1">
+    <row r="11" spans="1:47" ht="14.25">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2003,43 +1786,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
       <c r="AU11" s="6"/>
     </row>
-    <row r="12" spans="1:47" ht="15" thickBot="1">
+    <row r="12" spans="1:47" ht="14.25">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2088,43 +1871,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
       <c r="AU12" s="6"/>
     </row>
-    <row r="13" spans="1:47" ht="15" thickBot="1">
+    <row r="13" spans="1:47" ht="14.25">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2173,43 +1956,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
       <c r="AU13" s="6"/>
     </row>
-    <row r="14" spans="1:47" ht="15" thickBot="1">
+    <row r="14" spans="1:47" ht="14.25">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2258,43 +2041,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
       <c r="AU14" s="6"/>
     </row>
-    <row r="15" spans="1:47" ht="15" thickBot="1">
+    <row r="15" spans="1:47" ht="14.25">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2343,43 +2126,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
       <c r="AU15" s="6"/>
     </row>
-    <row r="16" spans="1:47" ht="15" thickBot="1">
+    <row r="16" spans="1:47" ht="14.25">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2428,43 +2211,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
       <c r="AU16" s="6"/>
     </row>
-    <row r="17" spans="1:47" ht="15" thickBot="1">
+    <row r="17" spans="1:47" ht="14.25">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2513,43 +2296,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
       <c r="AU17" s="6"/>
     </row>
-    <row r="18" spans="1:47" ht="15" thickBot="1">
+    <row r="18" spans="1:47" ht="14.25">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2598,43 +2381,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
       <c r="AU18" s="6"/>
     </row>
-    <row r="19" spans="1:47" ht="15" thickBot="1">
+    <row r="19" spans="1:47" ht="14.25">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2683,43 +2466,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
       <c r="AU19" s="6"/>
     </row>
-    <row r="20" spans="1:47" ht="15" thickBot="1">
+    <row r="20" spans="1:47" ht="14.25">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2768,40 +2551,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
       <c r="AU20" s="6"/>
     </row>
     <row r="21" spans="1:47" ht="14.25">
@@ -2853,40 +2636,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
       <c r="AU21" s="6"/>
     </row>
     <row r="22" spans="1:47" ht="14.25">
@@ -2938,40 +2721,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
       <c r="AU22" s="6"/>
     </row>
     <row r="23" spans="1:47" ht="14.25">
@@ -3023,40 +2806,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
       <c r="AU23" s="6"/>
     </row>
     <row r="24" spans="1:47" ht="14.25">
@@ -3108,40 +2891,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
       <c r="AU24" s="6"/>
     </row>
     <row r="25" spans="1:47" ht="14.25">
@@ -3193,40 +2976,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
       <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:47" ht="14.25">
@@ -3278,40 +3061,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
       <c r="AU26" s="6"/>
     </row>
     <row r="27" spans="1:47" ht="14.25">
@@ -3363,40 +3146,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
       <c r="AU27" s="6"/>
     </row>
     <row r="28" spans="1:47" ht="14.25">
@@ -3448,40 +3231,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
       <c r="AU28" s="6"/>
     </row>
     <row r="29" spans="1:47" ht="14.25">
@@ -3533,40 +3316,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
       <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:47" ht="14.25">
@@ -3618,40 +3401,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
       <c r="AU30" s="6"/>
     </row>
     <row r="31" spans="1:47" ht="14.25">
@@ -3703,40 +3486,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
       <c r="AU31" s="6"/>
     </row>
     <row r="32" spans="1:47" ht="14.25">
@@ -3788,40 +3571,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
       <c r="AU32" s="6"/>
     </row>
     <row r="33" spans="1:47" ht="14.25">
@@ -3873,40 +3656,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+      <c r="AT33" s="20"/>
       <c r="AU33" s="6"/>
     </row>
     <row r="34" spans="1:47">
@@ -3958,40 +3741,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
       <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" ht="14.25">
@@ -4046,9 +3829,9 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -4131,9 +3914,9 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="4"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -5249,10 +5032,10 @@
   <dimension ref="A1:AU49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="AJ22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22:AT48"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5267,17 +5050,16 @@
     <col min="11" max="11" width="11.625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="12.125" customWidth="1"/>
-    <col min="32" max="32" width="11.375" customWidth="1"/>
-    <col min="33" max="33" width="13.25" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="14.375" customWidth="1"/>
-    <col min="36" max="36" width="13.125" customWidth="1"/>
-    <col min="38" max="38" width="10" customWidth="1"/>
-    <col min="39" max="39" width="13.875" customWidth="1"/>
+    <col min="14" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
+    <col min="25" max="25" width="11.625" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="33" max="33" width="15.25" customWidth="1"/>
+    <col min="34" max="34" width="13.25" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="14.375" customWidth="1"/>
+    <col min="37" max="37" width="13.125" customWidth="1"/>
+    <col min="39" max="39" width="10" customWidth="1"/>
     <col min="40" max="40" width="12.25" customWidth="1"/>
     <col min="44" max="45" width="12.25" customWidth="1"/>
     <col min="46" max="46" width="14.25" customWidth="1"/>
@@ -5286,14 +5068,14 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.75" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="9">
         <f>ROUND(L1/60,2)</f>
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -5302,14 +5084,14 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="23"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="11">
         <f>SUM(B3:B37)+SUM(C3:C37)</f>
         <v>0</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="18"/>
-      <c r="O1" s="7"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -5343,148 +5125,148 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="6"/>
     </row>
-    <row r="2" spans="1:47" ht="15" thickBot="1">
+    <row r="2" spans="1:47" ht="14.25">
       <c r="A2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AU2" s="6"/>
     </row>
-    <row r="3" spans="1:47" ht="15" thickBot="1">
+    <row r="3" spans="1:47" ht="14.25">
       <c r="A3" s="14">
         <f>ROUND(B3/60,2)+ROUND(C3/60,2)</f>
         <v>0</v>
@@ -5522,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <f>IF(MID(AO3,2,3)="工作日",0,1)</f>
+        <f>IF(MID(Q3,2,4)="1.00",0,1)</f>
         <v>1</v>
       </c>
       <c r="K3" s="16">
@@ -5533,43 +5315,43 @@
         <f>IF(LEN(CLEAN(N3))=13,MID(N3,8,5),IF(LEN(CLEAN(N3))=19,MID(N3,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="20"/>
       <c r="AU3" s="6"/>
     </row>
-    <row r="4" spans="1:47" ht="15" thickBot="1">
+    <row r="4" spans="1:47" ht="14.25">
       <c r="A4" s="14">
         <f t="shared" ref="A4:A48" si="0">ROUND(B4/60,2)+ROUND(C4/60,2)</f>
         <v>0</v>
@@ -5607,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="15">
-        <f t="shared" ref="J4:J48" si="9">IF(MID(AO4,2,3)="工作日",0,1)</f>
+        <f t="shared" ref="J4:J48" si="9">IF(MID(Q4,2,4)="1.00",0,1)</f>
         <v>1</v>
       </c>
       <c r="K4" s="16">
@@ -5618,43 +5400,43 @@
         <f t="shared" ref="L4:L48" si="11">IF(LEN(CLEAN(N4))=13,MID(N4,8,5),IF(LEN(CLEAN(N4))=19,MID(N4,14,5),0))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
       <c r="AU4" s="6"/>
     </row>
-    <row r="5" spans="1:47" ht="15" thickBot="1">
+    <row r="5" spans="1:47" ht="14.25">
       <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5703,43 +5485,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
       <c r="AU5" s="6"/>
     </row>
-    <row r="6" spans="1:47" ht="15" thickBot="1">
+    <row r="6" spans="1:47" ht="14.25">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5788,43 +5570,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
       <c r="AU6" s="6"/>
     </row>
-    <row r="7" spans="1:47" ht="15" thickBot="1">
+    <row r="7" spans="1:47" ht="14.25">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5873,43 +5655,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
       <c r="AU7" s="6"/>
     </row>
-    <row r="8" spans="1:47" ht="15" thickBot="1">
+    <row r="8" spans="1:47" ht="14.25">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5958,43 +5740,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
       <c r="AU8" s="6"/>
     </row>
-    <row r="9" spans="1:47" ht="15" thickBot="1">
+    <row r="9" spans="1:47" ht="14.25">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6043,43 +5825,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
       <c r="AU9" s="6"/>
     </row>
-    <row r="10" spans="1:47" ht="15" thickBot="1">
+    <row r="10" spans="1:47" ht="14.25">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6128,43 +5910,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
       <c r="AU10" s="6"/>
     </row>
-    <row r="11" spans="1:47" ht="15" thickBot="1">
+    <row r="11" spans="1:47" ht="14.25">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6213,43 +5995,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
       <c r="AU11" s="6"/>
     </row>
-    <row r="12" spans="1:47" ht="15" thickBot="1">
+    <row r="12" spans="1:47" ht="14.25">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6298,43 +6080,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
       <c r="AU12" s="6"/>
     </row>
-    <row r="13" spans="1:47" ht="15" thickBot="1">
+    <row r="13" spans="1:47" ht="14.25">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6383,43 +6165,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
       <c r="AU13" s="6"/>
     </row>
-    <row r="14" spans="1:47" ht="15" thickBot="1">
+    <row r="14" spans="1:47" ht="14.25">
       <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6468,43 +6250,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
       <c r="AU14" s="6"/>
     </row>
-    <row r="15" spans="1:47" ht="15" thickBot="1">
+    <row r="15" spans="1:47" ht="14.25">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6553,43 +6335,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
       <c r="AU15" s="6"/>
     </row>
-    <row r="16" spans="1:47" ht="15" thickBot="1">
+    <row r="16" spans="1:47" ht="14.25">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6638,43 +6420,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
       <c r="AU16" s="6"/>
     </row>
-    <row r="17" spans="1:47" ht="15" thickBot="1">
+    <row r="17" spans="1:47" ht="14.25">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6723,43 +6505,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
       <c r="AU17" s="6"/>
     </row>
-    <row r="18" spans="1:47" ht="15" thickBot="1">
+    <row r="18" spans="1:47" ht="14.25">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6808,43 +6590,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
       <c r="AU18" s="6"/>
     </row>
-    <row r="19" spans="1:47" ht="15" thickBot="1">
+    <row r="19" spans="1:47" ht="14.25">
       <c r="A19" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6893,43 +6675,43 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
       <c r="AU19" s="6"/>
     </row>
-    <row r="20" spans="1:47" ht="15" thickBot="1">
+    <row r="20" spans="1:47" ht="14.25">
       <c r="A20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6978,40 +6760,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
       <c r="AU20" s="6"/>
     </row>
     <row r="21" spans="1:47" ht="14.25">
@@ -7063,40 +6845,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
       <c r="AU21" s="6"/>
     </row>
     <row r="22" spans="1:47" ht="14.25">
@@ -7148,40 +6930,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
       <c r="AU22" s="6"/>
     </row>
     <row r="23" spans="1:47" ht="14.25">
@@ -7233,40 +7015,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
       <c r="AU23" s="6"/>
     </row>
     <row r="24" spans="1:47" ht="14.25">
@@ -7318,40 +7100,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="25"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
       <c r="AU24" s="6"/>
     </row>
     <row r="25" spans="1:47" ht="14.25">
@@ -7403,40 +7185,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
       <c r="AU25" s="6"/>
     </row>
     <row r="26" spans="1:47" ht="14.25">
@@ -7488,40 +7270,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
       <c r="AU26" s="6"/>
     </row>
     <row r="27" spans="1:47" ht="14.25">
@@ -7573,40 +7355,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
       <c r="AU27" s="6"/>
     </row>
     <row r="28" spans="1:47" ht="14.25">
@@ -7658,40 +7440,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
       <c r="AU28" s="6"/>
     </row>
     <row r="29" spans="1:47" ht="14.25">
@@ -7743,40 +7525,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
       <c r="AU29" s="6"/>
     </row>
     <row r="30" spans="1:47" ht="14.25">
@@ -7828,40 +7610,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
       <c r="AU30" s="6"/>
     </row>
     <row r="31" spans="1:47" ht="14.25">
@@ -7913,40 +7695,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="25"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="25"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="25"/>
-      <c r="AM31" s="25"/>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="25"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="25"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="25"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
       <c r="AU31" s="6"/>
     </row>
     <row r="32" spans="1:47" ht="14.25">
@@ -7998,40 +7780,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
       <c r="AU32" s="6"/>
     </row>
     <row r="33" spans="1:47" ht="14.25">
@@ -8083,40 +7865,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="25"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="25"/>
-      <c r="AJ33" s="25"/>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="25"/>
-      <c r="AM33" s="25"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="25"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+      <c r="AT33" s="20"/>
       <c r="AU33" s="6"/>
     </row>
     <row r="34" spans="1:47">
@@ -8168,40 +7950,40 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28"/>
-      <c r="AT34" s="28"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23"/>
       <c r="AU34" s="6"/>
     </row>
     <row r="35" spans="1:47" ht="14.25">
@@ -8256,9 +8038,9 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="4"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -8341,9 +8123,9 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="4"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -9446,1735 +9228,10 @@
   </sheetData>
   <sheetProtection password="C506" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="M4:AT48 M3 O3:AT3" name="编辑"/>
+    <protectedRange sqref="M3:AT48" name="编辑"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH32"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q6" workbookViewId="0">
-      <selection sqref="A1:AE31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1">
-      <c r="A1" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15" thickBot="1">
-      <c r="A2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1">
-      <c r="A3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15" thickBot="1">
-      <c r="A5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="15" thickBot="1">
-      <c r="A6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15" thickBot="1">
-      <c r="A7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1">
-      <c r="A8" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="15" thickBot="1">
-      <c r="A9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="15" thickBot="1">
-      <c r="A10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1">
-      <c r="A11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1">
-      <c r="A12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1">
-      <c r="A13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="15" thickBot="1">
-      <c r="A14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="15" thickBot="1">
-      <c r="A15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="15" thickBot="1">
-      <c r="A16" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="15" thickBot="1">
-      <c r="A17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="15" thickBot="1">
-      <c r="A18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD18" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="15" thickBot="1">
-      <c r="A19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="15" thickBot="1">
-      <c r="A20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="15" thickBot="1">
-      <c r="A21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE21" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="15" thickBot="1">
-      <c r="A22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD22" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="15" thickBot="1">
-      <c r="A23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE23" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="15" thickBot="1">
-      <c r="A24" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="15" thickBot="1">
-      <c r="A25" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="15" thickBot="1">
-      <c r="A26" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="15" thickBot="1">
-      <c r="A27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="15" thickBot="1">
-      <c r="A28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD28" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="15" thickBot="1">
-      <c r="A29" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="15" thickBot="1">
-      <c r="A30" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="15" thickBot="1">
-      <c r="A31" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="14.25" thickBot="1">
-      <c r="A32" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>